--- a/Docs/FW/PowerSupply/MODBUS_XR75CX(From Ivan De Donà ).xlsx
+++ b/Docs/FW/PowerSupply/MODBUS_XR75CX(From Ivan De Donà ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MODBUS_COMMANDS" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,81 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jeqi</author>
+  </authors>
+  <commentList>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jeqi:
+hex2dec(value)/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jeqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hex2dec(value)/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jeqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hex2dec(value)/100</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="720">
   <si>
     <t>Modbus references for XR75CX</t>
   </si>
@@ -2877,36 +2950,6 @@
     <t>EE</t>
   </si>
   <si>
-    <t>0C0543</t>
-  </si>
-  <si>
-    <t>0C0544</t>
-  </si>
-  <si>
-    <t>0BFF07</t>
-  </si>
-  <si>
-    <t>0C0746</t>
-  </si>
-  <si>
-    <t>0C0547</t>
-  </si>
-  <si>
-    <t>0C0548</t>
-  </si>
-  <si>
-    <t>0C0549</t>
-  </si>
-  <si>
-    <t>0C0550</t>
-  </si>
-  <si>
-    <t>88e</t>
-  </si>
-  <si>
-    <t>0bf9d2</t>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -3415,12 +3458,204 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000089A</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ddress</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>unction code</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>umber of Byte</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>otage</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hase A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>urrent</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ower</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase B</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase C</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC LSB</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC MSB</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nswer</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3556,6 +3791,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3589,7 +3837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -4070,13 +4318,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4295,19 +4552,41 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4322,31 +4601,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4365,41 +4652,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4758,44 +5056,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
-      <c r="B1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="3" spans="2:26" ht="15.75">
       <c r="B3" s="49"/>
       <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="2:26">
       <c r="B5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
       <c r="J5" s="17"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -4912,13 +5210,13 @@
       <c r="B12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="103" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="73">
@@ -4986,27 +5284,27 @@
         <v>7</v>
       </c>
       <c r="I13" s="47"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86" t="s">
+      <c r="J13" s="103"/>
+      <c r="K13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86" t="s">
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="52"/>
@@ -5035,7 +5333,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="47"/>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="103" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="73">
@@ -5100,27 +5398,27 @@
       <c r="G16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86" t="s">
+      <c r="J16" s="103"/>
+      <c r="K16" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86" t="s">
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
     </row>
     <row r="17" spans="2:26">
       <c r="B17" s="58"/>
@@ -5151,12 +5449,12 @@
       <c r="B18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="J18" s="85" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="98"/>
+      <c r="J18" s="103" t="s">
         <v>31</v>
       </c>
       <c r="K18" s="73">
@@ -5227,27 +5525,27 @@
       <c r="G19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86" t="s">
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="52" t="s">
@@ -5285,7 +5583,7 @@
       <c r="Z20" s="74"/>
     </row>
     <row r="21" spans="2:26" ht="12.75" customHeight="1">
-      <c r="J21" s="85" t="s">
+      <c r="J21" s="103" t="s">
         <v>40</v>
       </c>
       <c r="K21" s="73">
@@ -5341,30 +5639,30 @@
       <c r="B22" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86" t="s">
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="52" t="s">
@@ -5749,11 +6047,11 @@
       <c r="B35" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="102"/>
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="76"/>
@@ -6149,11 +6447,11 @@
       <c r="B45" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="84"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
       <c r="J45" s="76"/>
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
@@ -6484,11 +6782,11 @@
       <c r="B59" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="84"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
     </row>
     <row r="60" spans="2:26">
       <c r="B60" s="52" t="s">
@@ -8031,27 +8329,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="K22:Z22"/>
-    <mergeCell ref="C35:G35"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="K22:Z22"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8068,8 +8366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P296"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133:I134"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -8170,18 +8468,18 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="104" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="104"/>
     </row>
     <row r="17" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="104"/>
     </row>
     <row r="18" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="105"/>
     </row>
     <row r="19" spans="2:2" ht="12.75" customHeight="1">
       <c r="B19" s="22" t="s">
@@ -8189,15 +8487,15 @@
       </c>
     </row>
     <row r="20" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="104" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B21" s="120"/>
+      <c r="B21" s="104"/>
     </row>
     <row r="22" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B22" s="120"/>
+      <c r="B22" s="104"/>
     </row>
     <row r="23" spans="2:2" ht="12.75" customHeight="1">
       <c r="B23" s="23"/>
@@ -8208,15 +8506,15 @@
       </c>
     </row>
     <row r="25" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="104" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B26" s="120"/>
+      <c r="B26" s="104"/>
     </row>
     <row r="27" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B27" s="120"/>
+      <c r="B27" s="104"/>
     </row>
     <row r="28" spans="2:2" ht="12.75" customHeight="1">
       <c r="B28" s="23"/>
@@ -8227,15 +8525,15 @@
       </c>
     </row>
     <row r="30" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="104" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B31" s="120"/>
+      <c r="B31" s="104"/>
     </row>
     <row r="32" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B32" s="120"/>
+      <c r="B32" s="104"/>
     </row>
     <row r="33" spans="2:2" ht="12.75" customHeight="1">
       <c r="B33" s="23"/>
@@ -8246,12 +8544,12 @@
       </c>
     </row>
     <row r="35" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="104" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B36" s="120"/>
+      <c r="B36" s="104"/>
     </row>
     <row r="37" spans="2:2" ht="12.75" customHeight="1">
       <c r="B37" s="24" t="s">
@@ -8284,15 +8582,15 @@
       </c>
     </row>
     <row r="43" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="104" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B44" s="120"/>
+      <c r="B44" s="104"/>
     </row>
     <row r="45" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B45" s="120"/>
+      <c r="B45" s="104"/>
     </row>
     <row r="46" spans="2:2" ht="12.75" customHeight="1">
       <c r="B46" s="23"/>
@@ -8303,15 +8601,15 @@
       </c>
     </row>
     <row r="48" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="104" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B49" s="120"/>
+      <c r="B49" s="104"/>
     </row>
     <row r="50" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B50" s="120"/>
+      <c r="B50" s="104"/>
     </row>
     <row r="51" spans="2:9" ht="12.75" customHeight="1">
       <c r="B51" s="23"/>
@@ -8325,13 +8623,13 @@
       <c r="B53" s="20"/>
     </row>
     <row r="54" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="116" t="s">
+      <c r="D54" s="112" t="s">
         <v>209</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -8342,9 +8640,9 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="117"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
       <c r="E55" s="7" t="s">
         <v>210</v>
       </c>
@@ -8376,10 +8674,10 @@
       <c r="B62" s="23"/>
     </row>
     <row r="63" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="110" t="s">
+      <c r="C63" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -8402,8 +8700,8 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B64" s="111"/>
-      <c r="C64" s="111"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
       <c r="D64" s="5" t="s">
         <v>211</v>
       </c>
@@ -8475,20 +8773,20 @@
       <c r="B77" s="26"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="110" t="s">
+      <c r="C78" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="D78" s="110" t="s">
+      <c r="D78" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="E78" s="116" t="s">
+      <c r="E78" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="108" t="s">
+      <c r="F78" s="114"/>
+      <c r="G78" s="118" t="s">
         <v>227</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -8499,12 +8797,12 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="111"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="109"/>
+      <c r="B79" s="108"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="7" t="s">
         <v>210</v>
       </c>
@@ -8556,10 +8854,10 @@
       <c r="B91" s="23"/>
     </row>
     <row r="92" spans="2:9" ht="25.5">
-      <c r="B92" s="110" t="s">
+      <c r="B92" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C92" s="110" t="s">
+      <c r="C92" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -8582,8 +8880,8 @@
       </c>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="111"/>
-      <c r="C93" s="111"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="108"/>
       <c r="D93" s="5" t="s">
         <v>211</v>
       </c>
@@ -8671,10 +8969,10 @@
       </c>
     </row>
     <row r="111" spans="2:11" ht="38.25">
-      <c r="B111" s="110" t="s">
+      <c r="B111" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="110" t="s">
+      <c r="C111" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -8689,10 +8987,10 @@
       <c r="G111" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H111" s="110" t="s">
+      <c r="H111" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="I111" s="112" t="s">
+      <c r="I111" s="120" t="s">
         <v>232</v>
       </c>
       <c r="J111" s="1" t="s">
@@ -8703,8 +9001,8 @@
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="111"/>
-      <c r="C112" s="111"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="108"/>
       <c r="D112" s="5" t="s">
         <v>211</v>
       </c>
@@ -8717,8 +9015,8 @@
       <c r="G112" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H112" s="111"/>
-      <c r="I112" s="113"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="121"/>
       <c r="J112" s="5" t="s">
         <v>210</v>
       </c>
@@ -8761,24 +9059,24 @@
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="119" t="s">
+      <c r="B121" s="111" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="119"/>
+      <c r="B122" s="111"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="119"/>
+      <c r="B123" s="111"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="119"/>
+      <c r="B124" s="111"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="119"/>
+      <c r="B125" s="111"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="119"/>
+      <c r="B126" s="111"/>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="20"/>
@@ -8805,10 +9103,10 @@
       <c r="B132" s="26"/>
     </row>
     <row r="133" spans="2:9" ht="38.25">
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C133" s="110" t="s">
+      <c r="C133" s="107" t="s">
         <v>224</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -8831,8 +9129,8 @@
       </c>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="111"/>
-      <c r="C134" s="111"/>
+      <c r="B134" s="108"/>
+      <c r="C134" s="108"/>
       <c r="D134" s="5" t="s">
         <v>211</v>
       </c>
@@ -9073,7 +9371,7 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="20"/>
-      <c r="B176" s="118" t="s">
+      <c r="B176" s="106" t="s">
         <v>273</v>
       </c>
       <c r="C176" s="20"/>
@@ -9093,7 +9391,7 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="20"/>
-      <c r="B177" s="118"/>
+      <c r="B177" s="106"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
@@ -9111,7 +9409,7 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="20"/>
-      <c r="B178" s="118"/>
+      <c r="B178" s="106"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
@@ -9129,7 +9427,7 @@
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="20"/>
-      <c r="B179" s="118"/>
+      <c r="B179" s="106"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
@@ -9147,7 +9445,7 @@
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="20"/>
-      <c r="B180" s="118"/>
+      <c r="B180" s="106"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
@@ -9165,7 +9463,7 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="20"/>
-      <c r="B181" s="118"/>
+      <c r="B181" s="106"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
       <c r="E181" s="20"/>
@@ -9183,7 +9481,7 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="20"/>
-      <c r="B182" s="118"/>
+      <c r="B182" s="106"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
       <c r="E182" s="20"/>
@@ -9259,10 +9557,10 @@
     </row>
     <row r="186" spans="1:16" ht="38.25">
       <c r="A186" s="20"/>
-      <c r="B186" s="110" t="s">
+      <c r="B186" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C186" s="110" t="s">
+      <c r="C186" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -9293,8 +9591,8 @@
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="20"/>
-      <c r="B187" s="111"/>
-      <c r="C187" s="111"/>
+      <c r="B187" s="108"/>
+      <c r="C187" s="108"/>
       <c r="D187" s="5" t="s">
         <v>211</v>
       </c>
@@ -9787,16 +10085,16 @@
       <c r="B212" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="C212" s="114" t="s">
+      <c r="C212" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="D212" s="114" t="s">
+      <c r="D212" s="109" t="s">
         <v>225</v>
       </c>
       <c r="E212" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="F212" s="106"/>
+      <c r="F212" s="116"/>
       <c r="G212" s="40" t="s">
         <v>275</v>
       </c>
@@ -9817,12 +10115,12 @@
       <c r="B213" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C213" s="115"/>
-      <c r="D213" s="115"/>
+      <c r="C213" s="110"/>
+      <c r="D213" s="110"/>
       <c r="E213" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F213" s="107"/>
+      <c r="F213" s="117"/>
       <c r="G213" s="44" t="s">
         <v>294</v>
       </c>
@@ -10021,7 +10319,7 @@
     </row>
     <row r="223" spans="1:16">
       <c r="A223" s="20"/>
-      <c r="B223" s="118" t="s">
+      <c r="B223" s="106" t="s">
         <v>299</v>
       </c>
       <c r="C223" s="20"/>
@@ -10041,7 +10339,7 @@
     </row>
     <row r="224" spans="1:16">
       <c r="A224" s="20"/>
-      <c r="B224" s="118"/>
+      <c r="B224" s="106"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
@@ -10059,7 +10357,7 @@
     </row>
     <row r="225" spans="1:16">
       <c r="A225" s="20"/>
-      <c r="B225" s="118"/>
+      <c r="B225" s="106"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
@@ -10077,7 +10375,7 @@
     </row>
     <row r="226" spans="1:16">
       <c r="A226" s="20"/>
-      <c r="B226" s="118"/>
+      <c r="B226" s="106"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
@@ -10095,7 +10393,7 @@
     </row>
     <row r="227" spans="1:16">
       <c r="A227" s="20"/>
-      <c r="B227" s="118"/>
+      <c r="B227" s="106"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
@@ -10113,7 +10411,7 @@
     </row>
     <row r="228" spans="1:16">
       <c r="A228" s="20"/>
-      <c r="B228" s="118"/>
+      <c r="B228" s="106"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
       <c r="E228" s="20"/>
@@ -10131,7 +10429,7 @@
     </row>
     <row r="229" spans="1:16">
       <c r="A229" s="20"/>
-      <c r="B229" s="118"/>
+      <c r="B229" s="106"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
       <c r="E229" s="20"/>
@@ -10184,10 +10482,10 @@
     </row>
     <row r="232" spans="1:16" ht="25.5">
       <c r="A232" s="20"/>
-      <c r="B232" s="110" t="s">
+      <c r="B232" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C232" s="110" t="s">
+      <c r="C232" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -10216,8 +10514,8 @@
     </row>
     <row r="233" spans="1:16">
       <c r="A233" s="20"/>
-      <c r="B233" s="111"/>
-      <c r="C233" s="111"/>
+      <c r="B233" s="108"/>
+      <c r="C233" s="108"/>
       <c r="D233" s="5" t="s">
         <v>211</v>
       </c>
@@ -10676,7 +10974,7 @@
       <c r="B256" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="C256" s="114" t="s">
+      <c r="C256" s="109" t="s">
         <v>215</v>
       </c>
       <c r="D256" s="38" t="s">
@@ -10704,7 +11002,7 @@
       <c r="B257" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C257" s="115"/>
+      <c r="C257" s="110"/>
       <c r="D257" s="4" t="s">
         <v>309</v>
       </c>
@@ -11406,17 +11704,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B176:B182"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E78:E79"/>
     <mergeCell ref="B186:B187"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="B232:B233"/>
@@ -11433,16 +11730,17 @@
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B121:B126"/>
     <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="B176:B182"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13983,251 +14281,246 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="18" max="18" width="12.85546875"/>
-    <col min="20" max="20" width="11.7109375"/>
+    <col min="10" max="10" width="9.140625" style="76"/>
+    <col min="11" max="11" width="9.28515625" style="76" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="76" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="9.140625" style="76"/>
+    <col min="20" max="20" width="12.85546875" style="76"/>
+    <col min="21" max="21" width="9.140625" style="76"/>
+    <col min="22" max="22" width="11.7109375" style="76"/>
+    <col min="23" max="24" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:24" ht="13.5" thickBot="1">
+      <c r="C1" s="133" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="J1" s="129" t="s">
+        <v>718</v>
+      </c>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.25" thickTop="1">
+      <c r="A2" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="5" t="s">
+      <c r="J2" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K2" s="130" t="s">
+        <v>707</v>
+      </c>
+      <c r="L2" s="130" t="s">
+        <v>708</v>
+      </c>
+      <c r="M2" s="134" t="s">
+        <v>710</v>
+      </c>
+      <c r="N2" s="135"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="134" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="134" t="s">
+        <v>714</v>
+      </c>
+      <c r="T2" s="135"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="131" t="s">
+        <v>715</v>
+      </c>
+      <c r="W2" s="131" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="str">
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="124" t="s">
+        <v>709</v>
+      </c>
+      <c r="N3" s="124" t="s">
+        <v>711</v>
+      </c>
+      <c r="O3" s="124" t="s">
+        <v>712</v>
+      </c>
+      <c r="P3" s="124" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q3" s="124" t="s">
+        <v>711</v>
+      </c>
+      <c r="R3" s="124" t="s">
+        <v>712</v>
+      </c>
+      <c r="S3" s="124" t="s">
+        <v>709</v>
+      </c>
+      <c r="T3" s="124" t="s">
+        <v>711</v>
+      </c>
+      <c r="U3" s="124" t="s">
+        <v>712</v>
+      </c>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+    </row>
+    <row r="4" spans="1:24" s="122" customFormat="1" ht="15" thickTop="1">
+      <c r="A4" s="122" t="str">
         <f>DEC2HEX(201)</f>
         <v>C9</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="122">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="122">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="122">
         <v>84</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E4" s="122">
+        <v>0</v>
+      </c>
+      <c r="F4" s="122">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="122">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="122" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="R7" t="s">
-        <v>626</v>
-      </c>
-      <c r="S7">
-        <f>HEX2DEC(R7)</f>
-        <v>787779</v>
-      </c>
-      <c r="T7">
-        <f>S7*0.000278</f>
-        <v>219.00256200000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="R8" t="s">
-        <v>627</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ref="S8" si="0">HEX2DEC(R8)</f>
-        <v>787780</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ref="T8" si="1">S8*0.000278</f>
-        <v>219.00283999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="R9" t="s">
-        <v>628</v>
-      </c>
-      <c r="S9">
-        <f t="shared" ref="S9:S17" si="2">HEX2DEC(R9)</f>
-        <v>786183</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ref="T9:T17" si="3">S9*0.000278</f>
-        <v>218.558874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="R10" t="s">
-        <v>629</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>788294</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>219.14573200000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="R11" t="s">
-        <v>630</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>787783</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>219.00367399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="R12" t="s">
+      <c r="J4" s="125" t="s">
+        <v>702</v>
+      </c>
+      <c r="K4" s="125" t="s">
+        <v>704</v>
+      </c>
+      <c r="L4" s="126" t="s">
+        <v>703</v>
+      </c>
+      <c r="M4" s="125" t="s">
+        <v>705</v>
+      </c>
+      <c r="N4" s="127" t="s">
         <v>631</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>787784</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>219.003952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="R13" t="s">
+      <c r="O4" s="127" t="s">
         <v>632</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="2"/>
-        <v>787785</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>219.00423000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="R14" t="s">
+      <c r="P4" s="127" t="s">
         <v>633</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>787792</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>219.00617600000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="R15">
-        <v>895</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
-        <v>2197</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>0.61076600000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="R16" t="s">
+      <c r="Q4" s="127" t="s">
+        <v>631</v>
+      </c>
+      <c r="R4" s="127">
+        <v>5550</v>
+      </c>
+      <c r="S4" s="127" t="s">
         <v>634</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="2"/>
-        <v>2190</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="3"/>
-        <v>0.60882000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="18:20">
-      <c r="R17" t="s">
+      <c r="T4" s="127" t="s">
+        <v>631</v>
+      </c>
+      <c r="U4" s="127" t="s">
         <v>635</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="2"/>
-        <v>784850</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>218.1883</v>
-      </c>
-    </row>
-    <row r="18" spans="18:20">
-      <c r="R18">
-        <f>1/0.000278/10</f>
-        <v>359.71223021582699</v>
-      </c>
+      <c r="V4" s="125" t="s">
+        <v>717</v>
+      </c>
+      <c r="W4" s="125" t="s">
+        <v>717</v>
+      </c>
+      <c r="X4" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="J1:W1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14243,13 +14536,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14319,8 +14612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14339,34 +14632,34 @@
   <sheetData>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G2" s="76">
         <v>5550</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K2">
         <f>HEX2DEC(B2)</f>
@@ -14407,34 +14700,34 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B3" s="76">
         <v>897</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G3" s="76">
         <v>5550</v>
       </c>
       <c r="H3" s="76" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" si="5">HEX2DEC(B3)</f>
@@ -14475,34 +14768,34 @@
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>639</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>641</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>642</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>649</v>
-      </c>
       <c r="F4" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G4" s="76">
         <v>5550</v>
       </c>
       <c r="H4" s="76" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
@@ -14543,34 +14836,34 @@
     </row>
     <row r="5" spans="1:21" ht="14.25">
       <c r="A5" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C5" s="76" t="s">
+        <v>631</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5" s="76" t="s">
         <v>641</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>642</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>651</v>
-      </c>
       <c r="F5" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G5" s="76">
         <v>5550</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -14611,34 +14904,34 @@
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B6" s="76">
         <v>898</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -14679,34 +14972,34 @@
     </row>
     <row r="7" spans="1:21" ht="14.25">
       <c r="A7" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B7" s="76">
         <v>899</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
@@ -14747,34 +15040,34 @@
     </row>
     <row r="8" spans="1:21" ht="14.25">
       <c r="A8" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B8" s="76">
         <v>895</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H8" s="76">
         <v>899</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
@@ -14815,34 +15108,34 @@
     </row>
     <row r="9" spans="1:21" ht="14.25">
       <c r="A9" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B9" s="76">
         <v>899</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H9" s="76" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
@@ -14887,13 +15180,13 @@
     </row>
     <row r="10" spans="1:21" ht="14.25">
       <c r="A10" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B10" s="76">
         <v>890</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D10" s="76">
         <v>53292</v>
@@ -14902,7 +15195,7 @@
         <v>899</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G10" s="76">
         <v>53994</v>
@@ -14911,10 +15204,10 @@
         <v>895</v>
       </c>
       <c r="I10" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
@@ -14959,22 +15252,22 @@
     </row>
     <row r="11" spans="1:21" ht="14.25">
       <c r="A11" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B11" s="76">
         <v>895</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D11" s="76">
         <v>53292</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G11" s="76">
         <v>53994</v>
@@ -14983,10 +15276,10 @@
         <v>898</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
@@ -15027,22 +15320,22 @@
     </row>
     <row r="12" spans="1:21" ht="14.25">
       <c r="A12" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B12" s="76">
         <v>895</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D12" s="80">
         <v>532</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G12" s="76">
         <v>53994</v>
@@ -15051,10 +15344,10 @@
         <v>896</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
@@ -15095,22 +15388,22 @@
     </row>
     <row r="13" spans="1:21" ht="14.25">
       <c r="A13" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B13" s="76">
         <v>896</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D13" s="76">
         <v>53292</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G13" s="76">
         <v>53946</v>
@@ -15119,10 +15412,10 @@
         <v>897</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
@@ -15163,34 +15456,34 @@
     </row>
     <row r="14" spans="1:21" ht="14.25">
       <c r="A14" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B14" s="76">
         <v>892</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="H14" s="76">
         <v>896</v>
       </c>
       <c r="I14" s="76" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
@@ -15231,34 +15524,34 @@
     </row>
     <row r="15" spans="1:21" ht="14.25">
       <c r="A15" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B15" s="76">
         <v>891</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E15" s="76">
         <v>897</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="H15" s="76">
         <v>892</v>
       </c>
       <c r="I15" s="76" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
@@ -15303,34 +15596,34 @@
     </row>
     <row r="16" spans="1:21" ht="14.25">
       <c r="A16" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E16" s="76">
         <v>895</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="H16" s="76">
         <v>891</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
@@ -15375,34 +15668,34 @@
     </row>
     <row r="17" spans="1:21" ht="14.25">
       <c r="A17" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B17" s="76">
         <v>891</v>
       </c>
       <c r="C17" s="76" t="s">
+        <v>651</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>661</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>671</v>
       </c>
       <c r="E17" s="76">
         <v>898</v>
       </c>
       <c r="F17" s="76" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="H17" s="76">
         <v>895</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
@@ -15447,34 +15740,34 @@
     </row>
     <row r="18" spans="1:21" ht="14.25">
       <c r="A18" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E18" s="76">
         <v>895</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H18" s="76">
         <v>891</v>
       </c>
       <c r="I18" s="76" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
@@ -15519,34 +15812,34 @@
     </row>
     <row r="19" spans="1:21" ht="14.25">
       <c r="A19" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C19" s="76">
         <v>139</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E19" s="76">
         <v>894</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H19" s="76" t="s">
+        <v>657</v>
+      </c>
+      <c r="I19" s="75" t="s">
         <v>667</v>
       </c>
-      <c r="I19" s="75" t="s">
-        <v>677</v>
-      </c>
       <c r="J19" s="76" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
@@ -15587,34 +15880,34 @@
     </row>
     <row r="20" spans="1:21" ht="14.25">
       <c r="A20" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C20" s="76">
         <v>139</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E20" s="76">
         <v>892</v>
       </c>
       <c r="F20" s="76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
@@ -15655,34 +15948,34 @@
     </row>
     <row r="21" spans="1:21" ht="14.25">
       <c r="A21" s="81" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="E21" s="76">
         <v>893</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="H21" s="76">
         <v>890</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
@@ -15723,31 +16016,31 @@
     </row>
     <row r="22" spans="1:21">
       <c r="B22" s="75" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H22" s="75" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" si="14">HEX2DEC(B22)</f>
@@ -15788,31 +16081,31 @@
     </row>
     <row r="23" spans="1:21">
       <c r="B23" s="75" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="F23" s="75" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="H23" s="75" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I23" s="75" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="K23">
         <f t="shared" si="14"/>
@@ -15853,31 +16146,31 @@
     </row>
     <row r="24" spans="1:21">
       <c r="B24" s="75" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="H24" s="75" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="J24" s="75" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="K24">
         <f t="shared" si="14"/>
@@ -15956,7 +16249,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="J26" s="75" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="K26">
         <f t="shared" si="14"/>
@@ -15997,7 +16290,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="J27" s="75" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="K27">
         <f t="shared" si="14"/>
@@ -16038,7 +16331,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="J28" s="75" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="K28">
         <f t="shared" si="14"/>
@@ -16079,7 +16372,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="J29" s="75" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="K29">
         <f t="shared" si="14"/>
@@ -16120,7 +16413,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="J30" s="75" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="K30">
         <f t="shared" si="14"/>
@@ -16161,7 +16454,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="J31" s="75" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="K31">
         <f t="shared" si="14"/>
